--- a/DataAnalysis/collect.xlsx
+++ b/DataAnalysis/collect.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="66">
   <si>
     <t>時間戳記</t>
   </si>
@@ -229,6 +229,12 @@
   </si>
   <si>
     <t>結婚好像跟買房是分開的兩件事！沒有啥影響關係</t>
+  </si>
+  <si>
+    <t>沒有</t>
+  </si>
+  <si>
+    <t>學生無收入</t>
   </si>
 </sst>
 </file>
@@ -530,11 +536,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE117"/>
+  <dimension ref="A1:AE126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:AE117"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -11397,6 +11403,847 @@
       </c>
       <c r="AE117" s="4"/>
     </row>
+    <row r="118" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A118" s="5">
+        <v>45286.548658078704</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G118" s="6">
+        <v>3</v>
+      </c>
+      <c r="H118" s="6">
+        <v>4</v>
+      </c>
+      <c r="I118" s="6">
+        <v>2</v>
+      </c>
+      <c r="J118" s="6">
+        <v>5</v>
+      </c>
+      <c r="K118" s="6">
+        <v>2</v>
+      </c>
+      <c r="L118" s="6">
+        <v>4</v>
+      </c>
+      <c r="M118" s="6">
+        <v>2</v>
+      </c>
+      <c r="N118" s="6">
+        <v>2</v>
+      </c>
+      <c r="O118" s="6">
+        <v>3</v>
+      </c>
+      <c r="P118" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q118" s="6">
+        <v>3</v>
+      </c>
+      <c r="R118" s="6">
+        <v>4</v>
+      </c>
+      <c r="S118" s="6">
+        <v>3</v>
+      </c>
+      <c r="T118" s="6">
+        <v>2</v>
+      </c>
+      <c r="U118" s="6">
+        <v>4</v>
+      </c>
+      <c r="V118" s="6">
+        <v>3</v>
+      </c>
+      <c r="W118" s="6">
+        <v>4</v>
+      </c>
+      <c r="X118" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y118" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z118" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA118" s="6">
+        <v>4</v>
+      </c>
+      <c r="AB118" s="6">
+        <v>4</v>
+      </c>
+      <c r="AC118" s="6">
+        <v>3</v>
+      </c>
+      <c r="AD118" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE118" s="4"/>
+    </row>
+    <row r="119" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A119" s="5">
+        <v>45286.67837872685</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G119" s="6">
+        <v>1</v>
+      </c>
+      <c r="H119" s="6">
+        <v>2</v>
+      </c>
+      <c r="I119" s="6">
+        <v>1</v>
+      </c>
+      <c r="J119" s="6">
+        <v>1</v>
+      </c>
+      <c r="K119" s="6">
+        <v>3</v>
+      </c>
+      <c r="L119" s="6">
+        <v>5</v>
+      </c>
+      <c r="M119" s="6">
+        <v>3</v>
+      </c>
+      <c r="N119" s="6">
+        <v>3</v>
+      </c>
+      <c r="O119" s="6">
+        <v>3</v>
+      </c>
+      <c r="P119" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q119" s="6">
+        <v>3</v>
+      </c>
+      <c r="R119" s="6">
+        <v>3</v>
+      </c>
+      <c r="S119" s="6">
+        <v>1</v>
+      </c>
+      <c r="T119" s="6">
+        <v>1</v>
+      </c>
+      <c r="U119" s="6">
+        <v>1</v>
+      </c>
+      <c r="V119" s="6">
+        <v>3</v>
+      </c>
+      <c r="W119" s="6">
+        <v>1</v>
+      </c>
+      <c r="X119" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y119" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z119" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA119" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB119" s="6">
+        <v>2</v>
+      </c>
+      <c r="AC119" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD119" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE119" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="120" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A120" s="5">
+        <v>45286.694224293984</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G120" s="6">
+        <v>4</v>
+      </c>
+      <c r="H120" s="6">
+        <v>4</v>
+      </c>
+      <c r="I120" s="6">
+        <v>5</v>
+      </c>
+      <c r="J120" s="6">
+        <v>5</v>
+      </c>
+      <c r="K120" s="6">
+        <v>3</v>
+      </c>
+      <c r="L120" s="6">
+        <v>4</v>
+      </c>
+      <c r="M120" s="6">
+        <v>1</v>
+      </c>
+      <c r="N120" s="6">
+        <v>5</v>
+      </c>
+      <c r="O120" s="6">
+        <v>4</v>
+      </c>
+      <c r="P120" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q120" s="6">
+        <v>2</v>
+      </c>
+      <c r="R120" s="6">
+        <v>5</v>
+      </c>
+      <c r="S120" s="6">
+        <v>4</v>
+      </c>
+      <c r="T120" s="6">
+        <v>5</v>
+      </c>
+      <c r="U120" s="6">
+        <v>4</v>
+      </c>
+      <c r="V120" s="6">
+        <v>5</v>
+      </c>
+      <c r="W120" s="6">
+        <v>5</v>
+      </c>
+      <c r="X120" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y120" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z120" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA120" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB120" s="6">
+        <v>2</v>
+      </c>
+      <c r="AC120" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD120" s="6">
+        <v>2</v>
+      </c>
+      <c r="AE120" s="4"/>
+    </row>
+    <row r="121" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A121" s="5">
+        <v>45286.701937592588</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G121" s="6">
+        <v>4</v>
+      </c>
+      <c r="H121" s="6">
+        <v>4</v>
+      </c>
+      <c r="I121" s="6">
+        <v>4</v>
+      </c>
+      <c r="J121" s="6">
+        <v>4</v>
+      </c>
+      <c r="K121" s="6">
+        <v>4</v>
+      </c>
+      <c r="L121" s="6">
+        <v>4</v>
+      </c>
+      <c r="M121" s="6">
+        <v>3</v>
+      </c>
+      <c r="N121" s="6">
+        <v>4</v>
+      </c>
+      <c r="O121" s="6">
+        <v>4</v>
+      </c>
+      <c r="P121" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q121" s="6">
+        <v>4</v>
+      </c>
+      <c r="R121" s="6">
+        <v>4</v>
+      </c>
+      <c r="S121" s="6">
+        <v>4</v>
+      </c>
+      <c r="T121" s="6">
+        <v>4</v>
+      </c>
+      <c r="U121" s="6">
+        <v>4</v>
+      </c>
+      <c r="V121" s="6">
+        <v>4</v>
+      </c>
+      <c r="W121" s="6">
+        <v>4</v>
+      </c>
+      <c r="X121" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y121" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z121" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA121" s="6">
+        <v>4</v>
+      </c>
+      <c r="AB121" s="6">
+        <v>4</v>
+      </c>
+      <c r="AC121" s="6">
+        <v>3</v>
+      </c>
+      <c r="AD121" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE121" s="4"/>
+    </row>
+    <row r="122" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A122" s="5">
+        <v>45287.602238495369</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G122" s="6">
+        <v>5</v>
+      </c>
+      <c r="H122" s="6">
+        <v>5</v>
+      </c>
+      <c r="I122" s="6">
+        <v>5</v>
+      </c>
+      <c r="J122" s="6">
+        <v>4</v>
+      </c>
+      <c r="K122" s="6">
+        <v>1</v>
+      </c>
+      <c r="L122" s="6">
+        <v>4</v>
+      </c>
+      <c r="M122" s="6">
+        <v>3</v>
+      </c>
+      <c r="N122" s="6">
+        <v>5</v>
+      </c>
+      <c r="O122" s="6">
+        <v>1</v>
+      </c>
+      <c r="P122" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q122" s="6">
+        <v>3</v>
+      </c>
+      <c r="R122" s="6">
+        <v>4</v>
+      </c>
+      <c r="S122" s="6">
+        <v>5</v>
+      </c>
+      <c r="T122" s="6">
+        <v>5</v>
+      </c>
+      <c r="U122" s="6">
+        <v>5</v>
+      </c>
+      <c r="V122" s="6">
+        <v>5</v>
+      </c>
+      <c r="W122" s="6">
+        <v>5</v>
+      </c>
+      <c r="X122" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y122" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z122" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA122" s="6">
+        <v>5</v>
+      </c>
+      <c r="AB122" s="6">
+        <v>2</v>
+      </c>
+      <c r="AC122" s="6">
+        <v>5</v>
+      </c>
+      <c r="AD122" s="6">
+        <v>5</v>
+      </c>
+      <c r="AE122" s="4"/>
+    </row>
+    <row r="123" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A123" s="5">
+        <v>45287.617422824071</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G123" s="6">
+        <v>5</v>
+      </c>
+      <c r="H123" s="6">
+        <v>3</v>
+      </c>
+      <c r="I123" s="6">
+        <v>3</v>
+      </c>
+      <c r="J123" s="6">
+        <v>1</v>
+      </c>
+      <c r="K123" s="6">
+        <v>3</v>
+      </c>
+      <c r="L123" s="6">
+        <v>2</v>
+      </c>
+      <c r="M123" s="6">
+        <v>3</v>
+      </c>
+      <c r="N123" s="6">
+        <v>5</v>
+      </c>
+      <c r="O123" s="6">
+        <v>4</v>
+      </c>
+      <c r="P123" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q123" s="6">
+        <v>1</v>
+      </c>
+      <c r="R123" s="6">
+        <v>4</v>
+      </c>
+      <c r="S123" s="6">
+        <v>5</v>
+      </c>
+      <c r="T123" s="6">
+        <v>3</v>
+      </c>
+      <c r="U123" s="6">
+        <v>1</v>
+      </c>
+      <c r="V123" s="6">
+        <v>3</v>
+      </c>
+      <c r="W123" s="6">
+        <v>3</v>
+      </c>
+      <c r="X123" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y123" s="6">
+        <v>5</v>
+      </c>
+      <c r="Z123" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA123" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB123" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC123" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD123" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE123" s="4"/>
+    </row>
+    <row r="124" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A124" s="5">
+        <v>45287.694691365745</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G124" s="6">
+        <v>4</v>
+      </c>
+      <c r="H124" s="6">
+        <v>4</v>
+      </c>
+      <c r="I124" s="6">
+        <v>4</v>
+      </c>
+      <c r="J124" s="6">
+        <v>3</v>
+      </c>
+      <c r="K124" s="6">
+        <v>2</v>
+      </c>
+      <c r="L124" s="6">
+        <v>4</v>
+      </c>
+      <c r="M124" s="6">
+        <v>2</v>
+      </c>
+      <c r="N124" s="6">
+        <v>4</v>
+      </c>
+      <c r="O124" s="6">
+        <v>1</v>
+      </c>
+      <c r="P124" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q124" s="6">
+        <v>2</v>
+      </c>
+      <c r="R124" s="6">
+        <v>2</v>
+      </c>
+      <c r="S124" s="6">
+        <v>4</v>
+      </c>
+      <c r="T124" s="6">
+        <v>4</v>
+      </c>
+      <c r="U124" s="6">
+        <v>2</v>
+      </c>
+      <c r="V124" s="6">
+        <v>2</v>
+      </c>
+      <c r="W124" s="6">
+        <v>1</v>
+      </c>
+      <c r="X124" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y124" s="6">
+        <v>5</v>
+      </c>
+      <c r="Z124" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA124" s="6">
+        <v>5</v>
+      </c>
+      <c r="AB124" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC124" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD124" s="6">
+        <v>3</v>
+      </c>
+      <c r="AE124" s="4"/>
+    </row>
+    <row r="125" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A125" s="5">
+        <v>45287.844748275464</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G125" s="6">
+        <v>5</v>
+      </c>
+      <c r="H125" s="6">
+        <v>3</v>
+      </c>
+      <c r="I125" s="6">
+        <v>3</v>
+      </c>
+      <c r="J125" s="6">
+        <v>3</v>
+      </c>
+      <c r="K125" s="6">
+        <v>2</v>
+      </c>
+      <c r="L125" s="6">
+        <v>4</v>
+      </c>
+      <c r="M125" s="6">
+        <v>2</v>
+      </c>
+      <c r="N125" s="6">
+        <v>5</v>
+      </c>
+      <c r="O125" s="6">
+        <v>5</v>
+      </c>
+      <c r="P125" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q125" s="6">
+        <v>5</v>
+      </c>
+      <c r="R125" s="6">
+        <v>5</v>
+      </c>
+      <c r="S125" s="6">
+        <v>2</v>
+      </c>
+      <c r="T125" s="6">
+        <v>2</v>
+      </c>
+      <c r="U125" s="6">
+        <v>2</v>
+      </c>
+      <c r="V125" s="6">
+        <v>2</v>
+      </c>
+      <c r="W125" s="6">
+        <v>2</v>
+      </c>
+      <c r="X125" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y125" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z125" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA125" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB125" s="6">
+        <v>2</v>
+      </c>
+      <c r="AC125" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD125" s="6">
+        <v>2</v>
+      </c>
+      <c r="AE125" s="4"/>
+    </row>
+    <row r="126" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A126" s="5">
+        <v>45287.868380671294</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G126" s="6">
+        <v>2</v>
+      </c>
+      <c r="H126" s="6">
+        <v>5</v>
+      </c>
+      <c r="I126" s="6">
+        <v>4</v>
+      </c>
+      <c r="J126" s="6">
+        <v>5</v>
+      </c>
+      <c r="K126" s="6">
+        <v>1</v>
+      </c>
+      <c r="L126" s="6">
+        <v>3</v>
+      </c>
+      <c r="M126" s="6">
+        <v>1</v>
+      </c>
+      <c r="N126" s="6">
+        <v>5</v>
+      </c>
+      <c r="O126" s="6">
+        <v>1</v>
+      </c>
+      <c r="P126" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q126" s="6">
+        <v>1</v>
+      </c>
+      <c r="R126" s="6">
+        <v>4</v>
+      </c>
+      <c r="S126" s="6">
+        <v>1</v>
+      </c>
+      <c r="T126" s="6">
+        <v>5</v>
+      </c>
+      <c r="U126" s="6">
+        <v>5</v>
+      </c>
+      <c r="V126" s="6">
+        <v>5</v>
+      </c>
+      <c r="W126" s="6">
+        <v>1</v>
+      </c>
+      <c r="X126" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y126" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z126" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA126" s="6">
+        <v>5</v>
+      </c>
+      <c r="AB126" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC126" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD126" s="6">
+        <v>3</v>
+      </c>
+      <c r="AE126" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
